--- a/biology/Zoologie/Cymbuliidae/Cymbuliidae.xlsx
+++ b/biology/Zoologie/Cymbuliidae/Cymbuliidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Cymbuliidae sont une famille de mollusques gastéropodes nectoniques, de l'ordre des Thecosomata. 
 </t>
@@ -511,7 +523,9 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La coquille, présente à l'état larvaire, est perdue secondairement et remplacée par une pseudo-coquille, la pseudoconque, de nature cartilagineuse, transparente. Cette pseudoconque présente une adaptation au mode de vie planctonique, car, d'une part, sa densité plus faible confère une meilleure flottabilité à l'animal, et, d'autre part, la transparence constitue une forme de camouflage en milieu marin ouvert.
 </t>
@@ -542,9 +556,11 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (21 décembre 2016)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (21 décembre 2016) :
 sous-famille Cymbuliinae Gray, 1840
 genre Cymbulia Péron &amp; Lesueur, 1810
 sous-famille Glebinae van der Spoel, 1976
